--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ptn</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.327816333333333</v>
+      </c>
+      <c r="H2">
+        <v>6.983449</v>
+      </c>
+      <c r="I2">
+        <v>0.02128501190197005</v>
+      </c>
+      <c r="J2">
+        <v>0.02128501190197004</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.459193</v>
-      </c>
-      <c r="H2">
-        <v>4.377578999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.01359248715138807</v>
-      </c>
-      <c r="J2">
-        <v>0.01359248715138806</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N2">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q2">
-        <v>0.1441804283416666</v>
+        <v>0.1250673640797778</v>
       </c>
       <c r="R2">
-        <v>1.297623855075</v>
+        <v>1.125606276718</v>
       </c>
       <c r="S2">
-        <v>0.001778386343999071</v>
+        <v>0.002282541820720708</v>
       </c>
       <c r="T2">
-        <v>0.001778386343999071</v>
+        <v>0.002282541820720708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H3">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I3">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J3">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N3">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O3">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P3">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q3">
-        <v>0.07839854870866665</v>
+        <v>1.041202760226444</v>
       </c>
       <c r="R3">
-        <v>0.7055869383779998</v>
+        <v>9.370824842037999</v>
       </c>
       <c r="S3">
-        <v>0.0009670030115491549</v>
+        <v>0.01900247008124934</v>
       </c>
       <c r="T3">
-        <v>0.0009670030115491549</v>
+        <v>0.01900247008124933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>103.0385286666667</v>
+      </c>
+      <c r="H4">
+        <v>309.115586</v>
+      </c>
+      <c r="I4">
+        <v>0.9421603747796319</v>
+      </c>
+      <c r="J4">
+        <v>0.9421603747796318</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>1.459193</v>
-      </c>
-      <c r="H4">
-        <v>4.377578999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.01359248715138807</v>
-      </c>
-      <c r="J4">
-        <v>0.01359248715138806</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N4">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q4">
-        <v>0.8794147636959998</v>
+        <v>5.535985375850221</v>
       </c>
       <c r="R4">
-        <v>7.914732873263998</v>
+        <v>49.823868382652</v>
       </c>
       <c r="S4">
-        <v>0.01084709779583984</v>
+        <v>0.1010344963472331</v>
       </c>
       <c r="T4">
-        <v>0.01084709779583984</v>
+        <v>0.1010344963472331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +729,51 @@
         <v>309.115586</v>
       </c>
       <c r="I5">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J5">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N5">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q5">
-        <v>10.18106528667222</v>
+        <v>46.08782871790356</v>
       </c>
       <c r="R5">
-        <v>91.62958758005</v>
+        <v>414.7904584611319</v>
       </c>
       <c r="S5">
-        <v>0.1255778449365895</v>
+        <v>0.8411258784323988</v>
       </c>
       <c r="T5">
-        <v>0.1255778449365895</v>
+        <v>0.8411258784323987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>103.0385286666667</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H6">
-        <v>309.115586</v>
+        <v>11.927308</v>
       </c>
       <c r="I6">
-        <v>0.9598112634857745</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J6">
-        <v>0.9598112634857743</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +809,33 @@
         <v>0.161182</v>
       </c>
       <c r="O6">
-        <v>0.07114246280162233</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P6">
-        <v>0.07114246280162234</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q6">
-        <v>5.535985375850221</v>
+        <v>0.2136074842284444</v>
       </c>
       <c r="R6">
-        <v>49.823868382652</v>
+        <v>1.922467358056</v>
       </c>
       <c r="S6">
-        <v>0.06828333710911484</v>
+        <v>0.003898443207449022</v>
       </c>
       <c r="T6">
-        <v>0.06828333710911484</v>
+        <v>0.003898443207449022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>103.0385286666667</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H7">
-        <v>309.115586</v>
+        <v>11.927308</v>
       </c>
       <c r="I7">
-        <v>0.9598112634857745</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J7">
-        <v>0.9598112634857743</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602672</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N7">
-        <v>1.808016</v>
+        <v>1.341862</v>
       </c>
       <c r="O7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q7">
-        <v>62.09843614859733</v>
+        <v>1.778311263055111</v>
       </c>
       <c r="R7">
-        <v>558.885925337376</v>
+        <v>16.004801367496</v>
       </c>
       <c r="S7">
-        <v>0.7659500814400702</v>
+        <v>0.0324550681790396</v>
       </c>
       <c r="T7">
-        <v>0.76595008144007</v>
+        <v>0.03245506817903959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.855184666666666</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H8">
-        <v>8.565553999999999</v>
+        <v>0.06598</v>
       </c>
       <c r="I8">
-        <v>0.02659624936283746</v>
+        <v>0.0002011019319095741</v>
       </c>
       <c r="J8">
-        <v>0.02659624936283746</v>
+        <v>0.0002011019319095741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N8">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q8">
-        <v>0.2821160382722222</v>
+        <v>0.001181643151111111</v>
       </c>
       <c r="R8">
-        <v>2.53904434445</v>
+        <v>0.01063478836</v>
       </c>
       <c r="S8">
-        <v>0.003479746284964046</v>
+        <v>2.156557731446916E-05</v>
       </c>
       <c r="T8">
-        <v>0.003479746284964045</v>
+        <v>2.156557731446916E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.06598</v>
+      </c>
+      <c r="I9">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J9">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.855184666666666</v>
-      </c>
-      <c r="H9">
-        <v>8.565553999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="J9">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N9">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O9">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P9">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q9">
-        <v>0.1534014583142222</v>
+        <v>0.009837339417777778</v>
       </c>
       <c r="R9">
-        <v>1.380613124828</v>
+        <v>0.08853605475999998</v>
       </c>
       <c r="S9">
-        <v>0.001892122680958336</v>
+        <v>0.000179536354595105</v>
       </c>
       <c r="T9">
-        <v>0.001892122680958336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.855184666666666</v>
-      </c>
-      <c r="H10">
-        <v>8.565553999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="J10">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.602672</v>
-      </c>
-      <c r="N10">
-        <v>1.808016</v>
-      </c>
-      <c r="O10">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="P10">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="Q10">
-        <v>1.720739853429333</v>
-      </c>
-      <c r="R10">
-        <v>15.486658680864</v>
-      </c>
-      <c r="S10">
-        <v>0.02122438039691508</v>
-      </c>
-      <c r="T10">
-        <v>0.02122438039691508</v>
+        <v>0.000179536354595105</v>
       </c>
     </row>
   </sheetData>
